--- a/biology/Botanique/Sapin_de_Corée/Sapin_de_Corée.xlsx
+++ b/biology/Botanique/Sapin_de_Corée/Sapin_de_Corée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sapin_de_Cor%C3%A9e</t>
+          <t>Sapin_de_Corée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abies koreana
 Le sapin de Corée (Abies koreana, 구상나무 Gusang namu en Coréen) est une espèce d'arbre de la famille des Pinaceae originaire de Corée qui se caractérise par le reflet argenté de ses aiguilles.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sapin_de_Cor%C3%A9e</t>
+          <t>Sapin_de_Corée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit sapin mesure entre 10 et 18 mètres de hauteur. Son tronc peut atteindre 0,7 m de diamètre. Il se caractérise par de très beaux cônes dressés, qui apparaissent dès que le plant atteint 1 m de haut. 
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sapin_de_Cor%C3%A9e</t>
+          <t>Sapin_de_Corée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son environnement naturel, on trouve Abies koreana entre 1 000 et  1 900 mètres d'altitude dans les montagnes à fortes précipitations estivales et enneigées en hiver.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sapin_de_Cor%C3%A9e</t>
+          <t>Sapin_de_Corée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Abies koreana est originaire des hautes montagnes de Corée du Sud, ainsi que de l'île de Jeju-do.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sapin_de_Cor%C3%A9e</t>
+          <t>Sapin_de_Corée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Floraison au printemps
